--- a/domain_rules_summary_template.xlsx
+++ b/domain_rules_summary_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e122438\Documents\GitHub\hpms-validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F07A6-587E-4382-BDF9-D1364A1D2DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD1DA0-50B1-445F-9142-4BF683D91563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{97E3FA51-E252-4476-B25E-8BCEAF1F7C64}"/>
   </bookViews>
   <sheets>
     <sheet name="ruleDataItems" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="383">
   <si>
     <t>Rule</t>
   </si>
@@ -1189,261 +1189,6 @@
   </si>
   <si>
     <t>Section Length Must Not Be &gt; 0.11 Miles</t>
-  </si>
-  <si>
-    <t>DRD01</t>
-  </si>
-  <si>
-    <t>DRD64</t>
-  </si>
-  <si>
-    <t>DRD65</t>
-  </si>
-  <si>
-    <t>DRD66</t>
-  </si>
-  <si>
-    <t>DRD72</t>
-  </si>
-  <si>
-    <t>DRD202</t>
-  </si>
-  <si>
-    <t>DRD203</t>
-  </si>
-  <si>
-    <t>DRD204</t>
-  </si>
-  <si>
-    <t>DRE02</t>
-  </si>
-  <si>
-    <t>DRE03</t>
-  </si>
-  <si>
-    <t>DRE04</t>
-  </si>
-  <si>
-    <t>DRE05</t>
-  </si>
-  <si>
-    <t>DRE06</t>
-  </si>
-  <si>
-    <t>DRE07</t>
-  </si>
-  <si>
-    <t>DRE08</t>
-  </si>
-  <si>
-    <t>DRE09</t>
-  </si>
-  <si>
-    <t>DRE10</t>
-  </si>
-  <si>
-    <t>DRE11</t>
-  </si>
-  <si>
-    <t>DRE12</t>
-  </si>
-  <si>
-    <t>DRE13</t>
-  </si>
-  <si>
-    <t>DRE14</t>
-  </si>
-  <si>
-    <t>DRE15</t>
-  </si>
-  <si>
-    <t>DRI06</t>
-  </si>
-  <si>
-    <t>DRI10</t>
-  </si>
-  <si>
-    <t>DRI09</t>
-  </si>
-  <si>
-    <t>DRI07</t>
-  </si>
-  <si>
-    <t>DRE21</t>
-  </si>
-  <si>
-    <t>DRE22</t>
-  </si>
-  <si>
-    <t>DRE23</t>
-  </si>
-  <si>
-    <t>DRE24</t>
-  </si>
-  <si>
-    <t>DRE25</t>
-  </si>
-  <si>
-    <t>DRE26</t>
-  </si>
-  <si>
-    <t>DRE27</t>
-  </si>
-  <si>
-    <t>DRE28</t>
-  </si>
-  <si>
-    <t>DRE29</t>
-  </si>
-  <si>
-    <t>DRE30</t>
-  </si>
-  <si>
-    <t>DRE31</t>
-  </si>
-  <si>
-    <t>DRE32</t>
-  </si>
-  <si>
-    <t>DRE33</t>
-  </si>
-  <si>
-    <t>DRE34</t>
-  </si>
-  <si>
-    <t>DRE35</t>
-  </si>
-  <si>
-    <t>DRE36</t>
-  </si>
-  <si>
-    <t>DRE37</t>
-  </si>
-  <si>
-    <t>DRE38</t>
-  </si>
-  <si>
-    <t>DRE39</t>
-  </si>
-  <si>
-    <t>DRE40</t>
-  </si>
-  <si>
-    <t>DRE42</t>
-  </si>
-  <si>
-    <t>DRE43A</t>
-  </si>
-  <si>
-    <t>DRE43B</t>
-  </si>
-  <si>
-    <t>DRE43C</t>
-  </si>
-  <si>
-    <t>DRE43D</t>
-  </si>
-  <si>
-    <t>DRE43E</t>
-  </si>
-  <si>
-    <t>DRE43F</t>
-  </si>
-  <si>
-    <t>DRE44</t>
-  </si>
-  <si>
-    <t>DRE45A</t>
-  </si>
-  <si>
-    <t>DRE45B</t>
-  </si>
-  <si>
-    <t>DRE45C</t>
-  </si>
-  <si>
-    <t>DRE45D</t>
-  </si>
-  <si>
-    <t>DRE45E</t>
-  </si>
-  <si>
-    <t>DRE45F</t>
-  </si>
-  <si>
-    <t>DRE46</t>
-  </si>
-  <si>
-    <t>DRE47</t>
-  </si>
-  <si>
-    <t>DRE48</t>
-  </si>
-  <si>
-    <t>DRE49</t>
-  </si>
-  <si>
-    <t>DRE50</t>
-  </si>
-  <si>
-    <t>DRE51</t>
-  </si>
-  <si>
-    <t>DRE52</t>
-  </si>
-  <si>
-    <t>DRE54</t>
-  </si>
-  <si>
-    <t>DRE55</t>
-  </si>
-  <si>
-    <t>DRE56</t>
-  </si>
-  <si>
-    <t>DRE57</t>
-  </si>
-  <si>
-    <t>DRE58</t>
-  </si>
-  <si>
-    <t>DRE59</t>
-  </si>
-  <si>
-    <t>DRE60</t>
-  </si>
-  <si>
-    <t>DRE62</t>
-  </si>
-  <si>
-    <t>DRE63</t>
-  </si>
-  <si>
-    <t>DRE68</t>
-  </si>
-  <si>
-    <t>DRE70</t>
-  </si>
-  <si>
-    <t>DRE71</t>
-  </si>
-  <si>
-    <t>DRE73</t>
-  </si>
-  <si>
-    <t>DRE74</t>
-  </si>
-  <si>
-    <t>DRE75</t>
-  </si>
-  <si>
-    <t>DRE76</t>
-  </si>
-  <si>
-    <t>DRE77</t>
-  </si>
-  <si>
-    <t>DRE78</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1305,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <u/>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <u/>
@@ -1880,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2B6993-24F5-4E36-B923-10E570918712}">
   <dimension ref="A1:GO111"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3705,10 +3457,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A2&amp;"!A1")),HYPERLINK("#"&amp;A2&amp;"!A1",LEFT(A2)&amp;"-"&amp;MID(A2,2,2)&amp;"-"&amp;RIGHT(A2,2)),HYPERLINK(,LEFT(A2)&amp;"-"&amp;MID(A2,2,2)&amp;"-"&amp;RIGHT(A2,2)))</f>
+        <f t="shared" ref="B2:B65" ca="1" si="0">IF(ISREF(INDIRECT(SUBSTITUTE(A2,"-","")&amp;"!A1")),HYPERLINK("#"&amp;SUBSTITUTE(A2,"-","")&amp;"!A1",A2),HYPERLINK(,A2))</f>
         <v>D-RD-01</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3720,10 +3472,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B66" ca="1" si="0">IF(ISREF(INDIRECT(A3&amp;"!A1")),HYPERLINK("#"&amp;A3&amp;"!A1",LEFT(A3)&amp;"-"&amp;MID(A3,2,2)&amp;"-"&amp;RIGHT(A3,2)),HYPERLINK(,LEFT(A3)&amp;"-"&amp;MID(A3,2,2)&amp;"-"&amp;RIGHT(A3,2)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RD-64</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3736,7 +3488,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3751,7 +3503,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3766,7 +3518,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>387</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3781,10 +3533,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A7&amp;"!A1")),HYPERLINK("#"&amp;A7&amp;"!A1",LEFT(A7)&amp;"-"&amp;MID(A7,2,2)&amp;"-"&amp;RIGHT(A7,3)),HYPERLINK(,LEFT(A7)&amp;"-"&amp;MID(A7,2,2)&amp;"-"&amp;RIGHT(A7,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RD-202</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3796,10 +3548,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" ref="B8:B9" ca="1" si="1">IF(ISREF(INDIRECT(A8&amp;"!A1")),HYPERLINK("#"&amp;A8&amp;"!A1",LEFT(A8)&amp;"-"&amp;MID(A8,2,2)&amp;"-"&amp;RIGHT(A8,3)),HYPERLINK(,LEFT(A8)&amp;"-"&amp;MID(A8,2,2)&amp;"-"&amp;RIGHT(A8,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RD-203</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3811,10 +3563,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>222</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RD-204</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3826,7 +3578,7 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>391</v>
+        <v>228</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3841,7 +3593,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>392</v>
+        <v>229</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3856,7 +3608,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3871,7 +3623,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>394</v>
+        <v>231</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3886,7 +3638,7 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>395</v>
+        <v>232</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3901,7 +3653,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>396</v>
+        <v>233</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3916,7 +3668,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3931,7 +3683,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3946,7 +3698,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3961,7 +3713,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3976,7 +3728,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3991,7 +3743,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>402</v>
+        <v>239</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4006,7 +3758,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>403</v>
+        <v>240</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4021,7 +3773,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>404</v>
+        <v>241</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4036,7 +3788,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>405</v>
+        <v>242</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4051,7 +3803,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>406</v>
+        <v>243</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4066,7 +3818,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>407</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4081,7 +3833,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>408</v>
+        <v>245</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4096,7 +3848,7 @@
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>409</v>
+        <v>246</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4111,7 +3863,7 @@
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4126,7 +3878,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4141,7 +3893,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>412</v>
+        <v>249</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4156,7 +3908,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>413</v>
+        <v>250</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4171,7 +3923,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>414</v>
+        <v>251</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4186,7 +3938,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4201,7 +3953,7 @@
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>416</v>
+        <v>253</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4216,7 +3968,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>417</v>
+        <v>254</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4231,7 +3983,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>418</v>
+        <v>255</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4246,7 +3998,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>419</v>
+        <v>256</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4261,7 +4013,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>420</v>
+        <v>257</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4276,7 +4028,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>421</v>
+        <v>258</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4291,7 +4043,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>422</v>
+        <v>259</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4306,7 +4058,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4321,7 +4073,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>424</v>
+        <v>261</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4336,7 +4088,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>425</v>
+        <v>262</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4351,7 +4103,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>426</v>
+        <v>263</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4366,7 +4118,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4381,7 +4133,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4396,7 +4148,7 @@
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>429</v>
+        <v>266</v>
       </c>
       <c r="B48" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4411,10 +4163,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>430</v>
+        <v>267</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f t="shared" ref="B49:B53" ca="1" si="2">IF(ISREF(INDIRECT(A49&amp;"!A1")),HYPERLINK("#"&amp;A49&amp;"!A1",LEFT(A49)&amp;"-"&amp;MID(A49,2,2)&amp;"-"&amp;RIGHT(A49,3)),HYPERLINK(,LEFT(A49)&amp;"-"&amp;MID(A49,2,2)&amp;"-"&amp;RIGHT(A49,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-43A</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -4426,10 +4178,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>431</v>
+        <v>268</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-43B</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4441,10 +4193,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>432</v>
+        <v>269</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A51&amp;"!A1")),HYPERLINK("#"&amp;A51&amp;"!A1",LEFT(A51)&amp;"-"&amp;MID(A51,2,2)&amp;"-"&amp;RIGHT(A51,3)),HYPERLINK(,LEFT(A51)&amp;"-"&amp;MID(A51,2,2)&amp;"-"&amp;RIGHT(A51,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-43C</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -4456,10 +4208,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>433</v>
+        <v>270</v>
       </c>
       <c r="B52" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-43D</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -4471,10 +4223,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>434</v>
+        <v>271</v>
       </c>
       <c r="B53" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-43E</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -4486,10 +4238,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>435</v>
+        <v>272</v>
       </c>
       <c r="B54" s="3" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A54&amp;"!A1")),HYPERLINK("#"&amp;A54&amp;"!A1",LEFT(A54)&amp;"-"&amp;MID(A54,2,2)&amp;"-"&amp;RIGHT(A54,3)),HYPERLINK(,LEFT(A54)&amp;"-"&amp;MID(A54,2,2)&amp;"-"&amp;RIGHT(A54,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-43F</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -4501,7 +4253,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>436</v>
+        <v>273</v>
       </c>
       <c r="B55" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4516,10 +4268,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>437</v>
+        <v>274</v>
       </c>
       <c r="B56" s="3" t="str">
-        <f ca="1">IF(ISREF(INDIRECT(A56&amp;"!A1")),HYPERLINK("#"&amp;A56&amp;"!A1",LEFT(A56)&amp;"-"&amp;MID(A56,2,2)&amp;"-"&amp;RIGHT(A56,3)),HYPERLINK(,LEFT(A56)&amp;"-"&amp;MID(A56,2,2)&amp;"-"&amp;RIGHT(A56,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-45A</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4531,10 +4283,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>438</v>
+        <v>275</v>
       </c>
       <c r="B57" s="3" t="str">
-        <f t="shared" ref="B57:B61" ca="1" si="3">IF(ISREF(INDIRECT(A57&amp;"!A1")),HYPERLINK("#"&amp;A57&amp;"!A1",LEFT(A57)&amp;"-"&amp;MID(A57,2,2)&amp;"-"&amp;RIGHT(A57,3)),HYPERLINK(,LEFT(A57)&amp;"-"&amp;MID(A57,2,2)&amp;"-"&amp;RIGHT(A57,3)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-45B</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4546,10 +4298,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>439</v>
+        <v>276</v>
       </c>
       <c r="B58" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-45C</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4561,10 +4313,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>440</v>
+        <v>277</v>
       </c>
       <c r="B59" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-45D</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4576,10 +4328,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>441</v>
+        <v>278</v>
       </c>
       <c r="B60" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-45E</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4591,10 +4343,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>442</v>
+        <v>279</v>
       </c>
       <c r="B61" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="0"/>
         <v>D-RE-45F</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4606,7 +4358,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>443</v>
+        <v>280</v>
       </c>
       <c r="B62" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4621,7 +4373,7 @@
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>444</v>
+        <v>281</v>
       </c>
       <c r="B63" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4636,7 +4388,7 @@
     </row>
     <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>445</v>
+        <v>282</v>
       </c>
       <c r="B64" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4651,7 +4403,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>446</v>
+        <v>283</v>
       </c>
       <c r="B65" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4666,10 +4418,10 @@
     </row>
     <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>447</v>
+        <v>284</v>
       </c>
       <c r="B66" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="B66:B86" ca="1" si="1">IF(ISREF(INDIRECT(SUBSTITUTE(A66,"-","")&amp;"!A1")),HYPERLINK("#"&amp;SUBSTITUTE(A66,"-","")&amp;"!A1",A66),HYPERLINK(,A66))</f>
         <v>D-RE-50</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4681,10 +4433,10 @@
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>448</v>
+        <v>285</v>
       </c>
       <c r="B67" s="3" t="str">
-        <f t="shared" ref="B67:B86" ca="1" si="4">IF(ISREF(INDIRECT(A67&amp;"!A1")),HYPERLINK("#"&amp;A67&amp;"!A1",LEFT(A67)&amp;"-"&amp;MID(A67,2,2)&amp;"-"&amp;RIGHT(A67,2)),HYPERLINK(,LEFT(A67)&amp;"-"&amp;MID(A67,2,2)&amp;"-"&amp;RIGHT(A67,2)))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-51</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -4696,10 +4448,10 @@
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>449</v>
+        <v>286</v>
       </c>
       <c r="B68" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-52</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4711,10 +4463,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="B69" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-54</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4726,10 +4478,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="B70" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-55</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4741,10 +4493,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>452</v>
+        <v>289</v>
       </c>
       <c r="B71" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-56</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4756,10 +4508,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="B72" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-57</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -4771,10 +4523,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="B73" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-58</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -4786,10 +4538,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>455</v>
+        <v>292</v>
       </c>
       <c r="B74" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-59</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -4801,10 +4553,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>456</v>
+        <v>293</v>
       </c>
       <c r="B75" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-60</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4816,10 +4568,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>457</v>
+        <v>294</v>
       </c>
       <c r="B76" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-62</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -4831,10 +4583,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>458</v>
+        <v>295</v>
       </c>
       <c r="B77" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-63</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -4846,10 +4598,10 @@
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>459</v>
+        <v>296</v>
       </c>
       <c r="B78" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-68</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -4861,10 +4613,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="B79" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-70</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -4876,10 +4628,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>461</v>
+        <v>298</v>
       </c>
       <c r="B80" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-71</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -4891,10 +4643,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>462</v>
+        <v>299</v>
       </c>
       <c r="B81" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-73</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -4906,10 +4658,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>463</v>
+        <v>300</v>
       </c>
       <c r="B82" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-74</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -4921,10 +4673,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>464</v>
+        <v>301</v>
       </c>
       <c r="B83" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-75</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -4936,10 +4688,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="B84" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-76</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -4951,10 +4703,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>466</v>
+        <v>303</v>
       </c>
       <c r="B85" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-77</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -4966,10 +4718,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>467</v>
+        <v>304</v>
       </c>
       <c r="B86" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="1"/>
         <v>D-RE-78</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -4981,9 +4733,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H107" xr:uid="{BEACE931-9432-4CAA-874D-46D06D5BC6FB}"/>
-  <conditionalFormatting sqref="B2:B108">
+  <conditionalFormatting sqref="B87:B108">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISREF(INDIRECT(A87&amp;"!A1"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B86">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISREF(INDIRECT(A2&amp;"!A1"))</formula>
+      <formula>ISREF(INDIRECT(SUBSTITUTE(A2, "-","")&amp;"!A1"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
